--- a/biology/Médecine/Bernhard_Heine/Bernhard_Heine.xlsx
+++ b/biology/Médecine/Bernhard_Heine/Bernhard_Heine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Heine (né le 20 août 1800 à Schramberg (duché de Wurtemberg) – mort le 31 juillet 1846 à Glockenthal, près de Thoune (Suisse)) est un médecin allemand, inventeur de l'ostéotome (en), un outil médical permettant de couper les os.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'adolescence, Bernhard Heine devient l'apprenti de son oncle Johann Georg Heine (de) à Wurtzbourg. Ce dernier travaille en orthopédie.
 Bernhard Heine suit ensuite des cours à l'université de Wurtzbourg.
@@ -545,7 +559,9 @@
           <t>Invention de l'ostéotome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1830, après plusieurs années de recherches, Bernhard Heine présente un nouvel outil médical à ses collègues. Il nomme ce dernier « ostéotome », qui est une sorte de scie à os. Son invention obtient un certain succès à travers l'Europe.
 </t>
